--- a/Kytkennät.xlsx
+++ b/Kytkennät.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anton\OneDrive\Omat projektit\Quad\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projektit\quadcopter\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="18870" windowHeight="10770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="10770"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="70">
   <si>
     <t>MPU6050</t>
   </si>
@@ -217,6 +217,18 @@
   </si>
   <si>
     <t>(INT)MPU</t>
+  </si>
+  <si>
+    <t>Moto 1</t>
+  </si>
+  <si>
+    <t>Moto 2</t>
+  </si>
+  <si>
+    <t>Moto 3</t>
+  </si>
+  <si>
+    <t>Moto 4</t>
   </si>
 </sst>
 </file>
@@ -458,7 +470,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -498,6 +510,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlinkki" xfId="1" builtinId="8"/>
@@ -781,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1083,6 +1098,9 @@
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D29" s="29" t="s">
+        <v>66</v>
+      </c>
       <c r="E29" s="22" t="s">
         <v>41</v>
       </c>
@@ -1099,6 +1117,9 @@
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D31" s="29" t="s">
+        <v>67</v>
+      </c>
       <c r="E31" s="22" t="s">
         <v>42</v>
       </c>
@@ -1107,18 +1128,21 @@
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D32" s="29" t="s">
+        <v>68</v>
+      </c>
       <c r="E32" s="22" t="s">
         <v>43</v>
       </c>
       <c r="G32" s="22"/>
     </row>
-    <row r="33" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E33" s="23"/>
       <c r="G33" s="22" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E34" s="22">
         <v>7</v>
       </c>
@@ -1126,7 +1150,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E35" s="22">
         <v>8</v>
       </c>
@@ -1134,7 +1158,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>69</v>
+      </c>
       <c r="E36" s="22" t="s">
         <v>44</v>
       </c>
@@ -1148,7 +1175,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E37" s="22" t="s">
         <v>45</v>
       </c>
@@ -1156,7 +1183,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E38" s="22" t="s">
         <v>46</v>
       </c>
@@ -1164,7 +1191,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E39" s="22">
         <v>12</v>
       </c>
@@ -1172,27 +1199,27 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E40" s="22">
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E41" s="22" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E42" s="22" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E43" s="22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E44" s="24" t="s">
         <v>19</v>
       </c>

--- a/Kytkennät.xlsx
+++ b/Kytkennät.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="76">
   <si>
     <t>MPU6050</t>
   </si>
@@ -229,6 +229,24 @@
   </si>
   <si>
     <t>Moto 4</t>
+  </si>
+  <si>
+    <t>YEP-ESC 18A</t>
+  </si>
+  <si>
+    <t>PWM</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>n. 815</t>
+  </si>
+  <si>
+    <t>(Ei toimi hyvin ESC:n kanssa?)</t>
   </si>
 </sst>
 </file>
@@ -470,7 +488,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -512,6 +530,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -794,10 +815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:O44"/>
+  <dimension ref="A5:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,7 +1001,7 @@
       <c r="N16" s="11"/>
       <c r="O16" s="12"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B17" s="13" t="s">
         <v>17</v>
       </c>
@@ -999,7 +1020,7 @@
       <c r="N17" s="11"/>
       <c r="O17" s="12"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B18" s="13" t="s">
         <v>18</v>
       </c>
@@ -1015,7 +1036,7 @@
       <c r="N18" s="11"/>
       <c r="O18" s="12"/>
     </row>
-    <row r="19" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="14" t="s">
         <v>20</v>
       </c>
@@ -1035,30 +1056,33 @@
       <c r="N19" s="17"/>
       <c r="O19" s="18"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K20" s="20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K21" s="20" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E25" t="s">
         <v>48</v>
       </c>
       <c r="G25" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D26" s="26" t="s">
         <v>63</v>
       </c>
@@ -1071,8 +1095,14 @@
       <c r="H26" s="25" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="L26" t="s">
+        <v>72</v>
+      </c>
+      <c r="M26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D27" s="26" t="s">
         <v>64</v>
       </c>
@@ -1085,8 +1115,17 @@
       <c r="H27" s="25" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K27" t="s">
+        <v>71</v>
+      </c>
+      <c r="L27">
+        <v>17</v>
+      </c>
+      <c r="M27">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D28" s="26" t="s">
         <v>65</v>
       </c>
@@ -1096,8 +1135,14 @@
       <c r="G28" s="22" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="L28" t="s">
+        <v>74</v>
+      </c>
+      <c r="M28">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D29" s="29" t="s">
         <v>66</v>
       </c>
@@ -1108,7 +1153,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E30" s="22">
         <v>4</v>
       </c>
@@ -1116,7 +1161,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
       <c r="D31" s="29" t="s">
         <v>67</v>
       </c>
@@ -1127,7 +1177,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="30"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
       <c r="D32" s="29" t="s">
         <v>68</v>
       </c>
@@ -1225,6 +1278,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A31:C32"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="J7" r:id="rId1"/>
     <hyperlink ref="J6" r:id="rId2"/>

--- a/Kytkennät.xlsx
+++ b/Kytkennät.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="80">
   <si>
     <t>MPU6050</t>
   </si>
@@ -234,26 +234,38 @@
     <t>YEP-ESC 18A</t>
   </si>
   <si>
-    <t>PWM</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>n. 815</t>
-  </si>
-  <si>
-    <t>(Ei toimi hyvin ESC:n kanssa?)</t>
+    <t>PWM-min</t>
+  </si>
+  <si>
+    <t>(703-710 toimii sattumanvaraisesti)</t>
+  </si>
+  <si>
+    <t>PWM-max</t>
+  </si>
+  <si>
+    <t>Moottorit sammuu 3s yhteyden katkeamisen jälkeen.</t>
+  </si>
+  <si>
+    <t>5000++?</t>
+  </si>
+  <si>
+    <t>(Todellinen toiminta yli 3000 arvoilla täysin tuntematon)</t>
+  </si>
+  <si>
+    <t>Koodissa:</t>
+  </si>
+  <si>
+    <t>PWM 5 ja 6 toimii eri taajuuksilla kuin muut portit. Varmuuden vuoksi ei käytetä niitä moottoreiden ohjaamiseen.</t>
+  </si>
+  <si>
+    <t>LI-PO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -278,6 +290,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -531,8 +549,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -817,14 +835,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
@@ -1083,9 +1102,6 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D26" s="26" t="s">
-        <v>63</v>
-      </c>
       <c r="E26" s="21" t="s">
         <v>39</v>
       </c>
@@ -1095,17 +1111,8 @@
       <c r="H26" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="L26" t="s">
-        <v>72</v>
-      </c>
-      <c r="M26" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D27" s="26" t="s">
-        <v>64</v>
-      </c>
       <c r="E27" s="22" t="s">
         <v>40</v>
       </c>
@@ -1118,11 +1125,11 @@
       <c r="K27" t="s">
         <v>71</v>
       </c>
-      <c r="L27">
-        <v>17</v>
-      </c>
       <c r="M27">
-        <v>180</v>
+        <v>710</v>
+      </c>
+      <c r="N27" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -1135,11 +1142,14 @@
       <c r="G28" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="L28" t="s">
-        <v>74</v>
-      </c>
-      <c r="M28">
-        <v>2000</v>
+      <c r="K28" t="s">
+        <v>73</v>
+      </c>
+      <c r="M28" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="N28" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -1160,50 +1170,77 @@
       <c r="G30" s="22" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K30" t="s">
+        <v>77</v>
+      </c>
+      <c r="L30" t="s">
+        <v>71</v>
+      </c>
+      <c r="M30">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="30" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
-      <c r="D31" s="29" t="s">
-        <v>67</v>
-      </c>
       <c r="E31" s="22" t="s">
         <v>42</v>
       </c>
       <c r="G31" s="22" t="s">
         <v>53</v>
+      </c>
+      <c r="L31" t="s">
+        <v>73</v>
+      </c>
+      <c r="M31">
+        <v>2750</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="30"/>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
-      <c r="D32" s="29" t="s">
-        <v>68</v>
-      </c>
       <c r="E32" s="22" t="s">
         <v>43</v>
       </c>
       <c r="G32" s="22"/>
     </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="30"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
       <c r="E33" s="23"/>
       <c r="G33" s="22" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="30"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="26" t="s">
+        <v>63</v>
+      </c>
       <c r="E34" s="22">
         <v>7</v>
       </c>
       <c r="G34" s="22" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="K34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D35" s="26" t="s">
+        <v>64</v>
+      </c>
       <c r="E35" s="22">
         <v>8</v>
       </c>
@@ -1211,9 +1248,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D36" t="s">
-        <v>69</v>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D36" s="29" t="s">
+        <v>67</v>
       </c>
       <c r="E36" s="22" t="s">
         <v>44</v>
@@ -1228,7 +1265,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D37" s="29" t="s">
+        <v>68</v>
+      </c>
       <c r="E37" s="22" t="s">
         <v>45</v>
       </c>
@@ -1236,7 +1276,10 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D38" s="26" t="s">
+        <v>69</v>
+      </c>
       <c r="E38" s="22" t="s">
         <v>46</v>
       </c>
@@ -1244,7 +1287,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E39" s="22">
         <v>12</v>
       </c>
@@ -1252,40 +1295,40 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E40" s="22">
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E41" s="22" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E42" s="22" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E43" s="22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E44" s="24" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A31:C32"/>
+    <mergeCell ref="A31:C34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J7" r:id="rId1"/>
     <hyperlink ref="J6" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Kytkennät.xlsx
+++ b/Kytkennät.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projektit\quadcopter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git-projut\quadcopter\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="81">
   <si>
     <t>MPU6050</t>
   </si>
@@ -259,6 +259,9 @@
   </si>
   <si>
     <t>LI-PO</t>
+  </si>
+  <si>
+    <t>Password</t>
   </si>
 </sst>
 </file>
@@ -835,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1085,6 +1088,14 @@
         <v>38</v>
       </c>
     </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K22" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="L22">
+        <v>9876</v>
+      </c>
+    </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
         <v>4</v>
